--- a/figures/TableLog2FC_V2.xlsx
+++ b/figures/TableLog2FC_V2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Draguet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Draguet\Documents\GitHub\BINF-F401-Project\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2EB1DE-0208-4D14-95D2-2714153C5EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281D2967-68F9-42D3-9986-EB7938DBCC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{09CF6066-CB0D-4571-9BA1-C867C15B1E76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{09CF6066-CB0D-4571-9BA1-C867C15B1E76}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Signs" sheetId="1" r:id="rId1"/>
+    <sheet name="Values" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="38">
   <si>
     <t>Cluster</t>
   </si>
@@ -90,13 +91,73 @@
   </si>
   <si>
     <t>neg. log2FC for HGHT and WGHT considering confounders</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>HGHT</t>
+  </si>
+  <si>
+    <t>WGHT</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>TRISCHD</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>COHORT</t>
+  </si>
+  <si>
+    <t>DTHVNT</t>
+  </si>
+  <si>
+    <t>DTHHRDY</t>
+  </si>
+  <si>
+    <t>Normalized</t>
+  </si>
+  <si>
+    <t>Categorical (56+ vs -56)</t>
+  </si>
+  <si>
+    <t>Categorical (181+ vs -181)</t>
+  </si>
+  <si>
+    <t>Categorical (71+ vs -71)</t>
+  </si>
+  <si>
+    <t>Categorical (28+ vs -28)</t>
+  </si>
+  <si>
+    <t>PostMortem vs OrganDonor</t>
+  </si>
+  <si>
+    <t>Categorical (50+ vs -50)</t>
+  </si>
+  <si>
+    <t>Yes vs No</t>
+  </si>
+  <si>
+    <t>Female vs Male</t>
+  </si>
+  <si>
+    <t>Intermediate vs Slow</t>
+  </si>
+  <si>
+    <t>Fast vs Slow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +167,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -198,11 +272,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,11 +374,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="135"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2058B6EA-8A0D-47CB-9C46-E21DF68BE9E5}">
   <dimension ref="B1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,7 +1171,7 @@
       <c r="L12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1342,4 +1637,1000 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9947B4-F36F-4E33-B3FE-B4AAC1FBE237}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16" width="5.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="62"/>
+      <c r="B1" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="64"/>
+      <c r="G1" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="64"/>
+      <c r="I1" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="64"/>
+      <c r="K1" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="64"/>
+      <c r="N1" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="64"/>
+    </row>
+    <row r="2" spans="1:16" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="34">
+        <v>1.2229859999999999</v>
+      </c>
+      <c r="D3" s="37">
+        <v>-1.264993</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="39">
+        <v>1.9848209999999999</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="36">
+        <v>1.778357</v>
+      </c>
+      <c r="N3" s="37">
+        <v>-1.4909429999999999</v>
+      </c>
+      <c r="O3" s="17">
+        <v>2.1007220000000002</v>
+      </c>
+      <c r="P3" s="36">
+        <v>1.997884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="35"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="36">
+        <v>1.8720349999999999</v>
+      </c>
+      <c r="D5" s="37">
+        <v>-1.986993</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="36">
+        <v>1.152285</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="36">
+        <v>1.7017770000000001</v>
+      </c>
+      <c r="K5" s="39">
+        <v>2.4600140000000001</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="36">
+        <v>2.3570139999999999</v>
+      </c>
+      <c r="N5" s="37">
+        <v>-2.3791410000000002</v>
+      </c>
+      <c r="O5" s="17">
+        <v>1.7091339999999999</v>
+      </c>
+      <c r="P5" s="49">
+        <v>2.8491879999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="39">
+        <v>1.244046</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="35"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="35"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="39">
+        <v>1.5532809999999999</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="36">
+        <v>1.186075</v>
+      </c>
+      <c r="N8" s="47">
+        <v>-1.4056420000000001</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="39">
+        <v>1.697085</v>
+      </c>
+      <c r="E9" s="16">
+        <v>-1.0218700000000001</v>
+      </c>
+      <c r="F9" s="37">
+        <v>-2.3160159999999999</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="44">
+        <v>-5.329682</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="46">
+        <v>-5.9084560000000002</v>
+      </c>
+      <c r="N9" s="48">
+        <v>6.2668359999999996</v>
+      </c>
+      <c r="O9" s="23">
+        <v>-6.3367909999999998</v>
+      </c>
+      <c r="P9" s="46">
+        <v>-5.8989520000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="37">
+        <v>-1.0988450000000001</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="39">
+        <v>1.0294490000000001</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="37">
+        <v>-2.3129279999999999</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="37">
+        <v>-2.0175160000000001</v>
+      </c>
+      <c r="N11" s="36">
+        <v>2.1743260000000002</v>
+      </c>
+      <c r="O11" s="16">
+        <v>-2.245816</v>
+      </c>
+      <c r="P11" s="37">
+        <v>-2.0231270000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="39">
+        <v>1.174641</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="35"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="37">
+        <v>-1.5321070000000001</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1.074295</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="41">
+        <v>-2.6934779999999998</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="41">
+        <v>-2.6048650000000002</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="44">
+        <v>-6.7200930000000003</v>
+      </c>
+      <c r="L13" s="16">
+        <v>-1.1235729999999999</v>
+      </c>
+      <c r="M13" s="46">
+        <v>-6.9038459999999997</v>
+      </c>
+      <c r="N13" s="48">
+        <v>7.352131</v>
+      </c>
+      <c r="O13" s="23">
+        <v>-6.4141560000000002</v>
+      </c>
+      <c r="P13" s="46">
+        <v>-7.1204450000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="37">
+        <v>-1.323941</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36">
+        <v>1.0269360000000001</v>
+      </c>
+      <c r="O15" s="21"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="35"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>14</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="37">
+        <v>-1.8439160000000001</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="37">
+        <v>-1.718483</v>
+      </c>
+      <c r="N17" s="36">
+        <v>1.7794460000000001</v>
+      </c>
+      <c r="O17" s="16">
+        <v>-1.61965</v>
+      </c>
+      <c r="P17" s="37">
+        <v>-1.578303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="39">
+        <v>1.2534369999999999</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="36">
+        <v>1.0397650000000001</v>
+      </c>
+      <c r="N18" s="37">
+        <v>-1.025658</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="35"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>16</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="39">
+        <v>1.4752970000000001</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="36">
+        <v>1.1906559999999999</v>
+      </c>
+      <c r="N19" s="37">
+        <v>-1.0686549999999999</v>
+      </c>
+      <c r="O19" s="17">
+        <v>1.4128829999999999</v>
+      </c>
+      <c r="P19" s="35"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>17</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="37">
+        <v>-1.418447</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="50">
+        <v>-1.197174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>18</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="29">
+        <v>4.4001679999999999</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="29">
+        <v>3.1213920000000002</v>
+      </c>
+      <c r="J21" s="43"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="28">
+        <v>-5.2546629999999999</v>
+      </c>
+      <c r="M21" s="42"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="35"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>19</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="35"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>20</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="39">
+        <v>1.0189349999999999</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="37">
+        <v>-2.3753950000000001</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="37">
+        <v>-2.0714229999999998</v>
+      </c>
+      <c r="N23" s="36">
+        <v>2.439613</v>
+      </c>
+      <c r="O23" s="16">
+        <v>-2.4307699999999999</v>
+      </c>
+      <c r="P23" s="37">
+        <v>-2.2585120000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>21</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="37">
+        <v>-1.0861909999999999</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="39">
+        <v>1.825542</v>
+      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="36">
+        <v>1.600501</v>
+      </c>
+      <c r="N24" s="37">
+        <v>-1.69215</v>
+      </c>
+      <c r="O24" s="17">
+        <v>1.6801429999999999</v>
+      </c>
+      <c r="P24" s="36">
+        <v>1.725339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="39">
+        <v>1.468828</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="36">
+        <v>1.218939</v>
+      </c>
+      <c r="N25" s="37">
+        <v>-1.2634650000000001</v>
+      </c>
+      <c r="O25" s="17">
+        <v>1.2253229999999999</v>
+      </c>
+      <c r="P25" s="36">
+        <v>1.015787</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>23</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="39">
+        <v>1.2754099999999999</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="37">
+        <v>-1.5620350000000001</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="45">
+        <v>-4.5322459999999998</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="41">
+        <v>-4.2246800000000002</v>
+      </c>
+      <c r="N26" s="48">
+        <v>5.1892769999999997</v>
+      </c>
+      <c r="O26" s="23">
+        <v>-5.2703290000000003</v>
+      </c>
+      <c r="P26" s="41">
+        <v>-4.906339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>24</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="39">
+        <v>2.1886960000000002</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="36">
+        <v>1.927503</v>
+      </c>
+      <c r="N27" s="37">
+        <v>-1.6119939999999999</v>
+      </c>
+      <c r="O27" s="17">
+        <v>2.2216130000000001</v>
+      </c>
+      <c r="P27" s="36">
+        <v>2.0910039999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>25</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="39">
+        <v>1.5863529999999999</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="37">
+        <v>-1.422871</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="44">
+        <v>-5.7465520000000003</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="46">
+        <v>-5.2124319999999997</v>
+      </c>
+      <c r="N28" s="48">
+        <v>5.5838279999999996</v>
+      </c>
+      <c r="O28" s="23">
+        <v>-6.3531940000000002</v>
+      </c>
+      <c r="P28" s="46">
+        <v>-5.2459610000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>26</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="39">
+        <v>1.716324</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="36">
+        <v>1.1699390000000001</v>
+      </c>
+      <c r="N29" s="37">
+        <v>-1.463096</v>
+      </c>
+      <c r="O29" s="17">
+        <v>1.2822169999999999</v>
+      </c>
+      <c r="P29" s="36">
+        <v>1.571949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>27</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="37">
+        <v>-1.136978</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="45">
+        <v>-3.0864630000000002</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="41">
+        <v>-2.6245980000000002</v>
+      </c>
+      <c r="N30" s="49">
+        <v>2.9172560000000001</v>
+      </c>
+      <c r="O30" s="26">
+        <v>-3.273892</v>
+      </c>
+      <c r="P30" s="41">
+        <v>-2.8480310000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>28</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="35"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>29</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="35"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>30</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="35"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="51">
+        <v>31</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53">
+        <v>-1.570119</v>
+      </c>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="53">
+        <v>-1.465579</v>
+      </c>
+      <c r="G34" s="56"/>
+      <c r="H34" s="53">
+        <v>-1.7183079999999999</v>
+      </c>
+      <c r="I34" s="56"/>
+      <c r="J34" s="53">
+        <v>-1.1046800000000001</v>
+      </c>
+      <c r="K34" s="57">
+        <v>-4.2651260000000004</v>
+      </c>
+      <c r="L34" s="58">
+        <v>-1.384358</v>
+      </c>
+      <c r="M34" s="59">
+        <v>-4.6390900000000004</v>
+      </c>
+      <c r="N34" s="60">
+        <v>5.0076239999999999</v>
+      </c>
+      <c r="O34" s="61">
+        <v>-5.7670560000000002</v>
+      </c>
+      <c r="P34" s="59">
+        <v>-4.4249679999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>